--- a/files/dailyDiet.xlsx
+++ b/files/dailyDiet.xlsx
@@ -12,21 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="普通班" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">    校长（签字）：             分管校长（签字）：              食堂管理员（签字）：                   监督员（签字）：                </t>
-  </si>
-  <si>
-    <t>&lt;%=_data_.name%&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>公式</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -113,23 +106,43 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%#"=PRODUCT(B"+_row+",D"+_row+")"%&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;%=_data_.date%&gt;          </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;%=_data_.name%&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    审核人：             学校（章）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~eny.totalPrice%&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：此表一式三份，其中一份公示，一份存档，一份上报</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;%="统计员"+_data_.creator.name%&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=_row-4%&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=_row-5%&gt;</t>
+    <t>&lt;%="使用总金额（大写）"+_data_.averagePrice%&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%="生均（元）"+_data_.averagePrice%&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%="应就餐学生数"+_data_.totalCount%&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%="实际就餐学生数"+_data_.actualCount%&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,61 +228,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -294,22 +252,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,41 +270,53 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -685,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -696,122 +655,283 @@
       <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
+      <c r="A3" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A6:H8"/>
+  <mergeCells count="12">
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A20:H22"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.43263888888888902" bottom="0.75" header="0.3" footer="0.3"/>
